--- a/02_構造化分析/05_レビュー議事録(構造化分析2回目).xlsx
+++ b/02_構造化分析/05_レビュー議事録(構造化分析2回目).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7171811B-1686-4209-8B61-2153D66CC3D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51100208-E1C9-462C-BF33-CFA342D38709}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="960" windowWidth="13830" windowHeight="10050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="960" windowWidth="13830" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -346,14 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020/06/03 (水)
-14:30-14:50</t>
-    <rPh sb="12" eb="13">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>石川、山浦、太田、原田、吉富、蜂須賀(敬称略)</t>
     <rPh sb="0" eb="2">
       <t>イシカワ</t>
@@ -466,6 +458,14 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/03 (水)
+14:30-14:40</t>
+    <rPh sb="12" eb="13">
+      <t>スイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1347,8 +1347,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>39</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1411,11 +1411,11 @@
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="22"/>
     </row>
@@ -1434,7 +1434,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="15" t="s">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="15" t="s">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="15" t="s">
@@ -1580,7 +1580,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1622,19 +1622,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="G2" s="10">
         <v>43985</v>
